--- a/kanban.xlsx
+++ b/kanban.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Рейтинговые работы\1 курс 2 семестр\10. Проектная деятельность в ИТ\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06044E28-239B-495A-9D94-512EFF7E59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E931763D-B87F-4904-A11C-0E6396720150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3975" windowWidth="28800" windowHeight="15345" xr2:uid="{FAE60D2D-6F1A-4F44-B139-09EC1DBCBDE1}"/>
+    <workbookView xWindow="6735" yWindow="3975" windowWidth="19650" windowHeight="13800" xr2:uid="{FAE60D2D-6F1A-4F44-B139-09EC1DBCBDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F960835-F2C9-4BB2-BDF7-1706D8C25580}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,20 +560,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -603,17 +597,23 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
